--- a/test/resources/dummy-spreadsheet.xlsx
+++ b/test/resources/dummy-spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6120" yWindow="22060" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,16 +57,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +136,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,66 +455,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>2.7183000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>1.4141999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="13">
         <f>SUM(A2:A4)</f>
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <f>PRODUCT(B2:B4)</f>
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <f>AVERAGE(C2:C4)</f>
         <v>2.4247000000000001</v>
       </c>
@@ -432,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test/resources/dummy-spreadsheet.xlsx
+++ b/test/resources/dummy-spreadsheet.xlsx
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -174,8 +177,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +459,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,11 +513,11 @@
         <f>SUM(A2:A4)</f>
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>PRODUCT(B2:B4)</f>
         <v>64</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <f>AVERAGE(C2:C4)</f>
         <v>2.4247000000000001</v>
       </c>

--- a/test/resources/dummy-spreadsheet.xlsx
+++ b/test/resources/dummy-spreadsheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -33,10 +33,16 @@
     <t>Z</t>
   </si>
   <si>
-    <t>#DIV/0!</t>
-  </si>
-  <si>
-    <t>#N/A</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
@@ -211,13 +217,8 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.0" customWidth="true"/>
-    <col min="2" max="2" width="10.0" customWidth="true"/>
-    <col min="3" max="3" width="10.0" customWidth="true"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="16.0" customHeight="true">
+    <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
@@ -228,7 +229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.0" customHeight="true">
+    <row r="2">
       <c r="A2" t="n" s="4">
         <v>1.0</v>
       </c>
@@ -250,7 +251,7 @@
         <v>2.7183</v>
       </c>
     </row>
-    <row r="4" ht="16.0" customHeight="true">
+    <row r="4">
       <c r="A4" t="n" s="10">
         <v>3.0</v>
       </c>
@@ -261,7 +262,7 @@
         <v>1.4142</v>
       </c>
     </row>
-    <row r="5" ht="16.0" customHeight="true">
+    <row r="5">
       <c r="A5" t="n" s="13">
         <f>SUM(A2:A4)</f>
         <v>6.0</v>
@@ -287,13 +288,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.0" customWidth="true"/>
-    <col min="2" max="2" width="10.0" customWidth="true"/>
-    <col min="3" max="3" width="10.0" customWidth="true"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="16.0" customHeight="true">
+    <row r="1">
       <c r="A1" t="s" s="16">
         <v>3</v>
       </c>
@@ -304,28 +300,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.0" customHeight="true">
-      <c r="A2" t="b" s="16">
+    <row r="2">
+      <c r="A2" t="s" s="16">
         <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" t="b" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="16">
         <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="16.0" customHeight="true">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="16">
         <f>1/0</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="16">
         <f>#N/A</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="16">
         <f>#N/A</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/resources/dummy-spreadsheet.xlsx
+++ b/test/resources/dummy-spreadsheet.xlsx
@@ -187,19 +187,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true"/>
